--- a/testing/censys/Censys_Director_Blog.xlsx
+++ b/testing/censys/Censys_Director_Blog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E627"/>
+  <dimension ref="A1:E665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17362,6 +17362,1032 @@
         </is>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Counting Everyone Once, Only Once and in the Right Place</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2018/11/counting_everyoneon.html</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau staff presented to the National Advisory Committee (NAC) and gave an update on how we plan to efficiently and effectively reach hard-to-count communities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Thank You, Providence</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2018/09/thank_you_providenc.html</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>Last week I had the opportunity to visit Providence, Rhode Island, where the 2018 Census Test is wrapping up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Planning and Testing for the 2020 Census in Harris County, Texas</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2016/03/planning-and-testing-for-the-2020-census-in-harris-county-texas.html</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>Today I am visiting Harris County, Texas, one of two sites now taking part in the 2016 Census Test that will help us prepare for the decennial census in 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Measuring Income, Poverty, and Health Insurance Coverage</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2015/08/measuring-income-poverty-and-health-insurance-coverage.html</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Today, the U.S. Census Bureau hosted a webcast on income, poverty, and health insurance coverage statistics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Transparency, Participation and Collaboration at the U.S. Census Bureau</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2015/05/transparency-participation-and-collaboration-at-the-u-s-census-bureau.html</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2015 Census Test Starts Today in the Savannah, Ga. Area</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2015/03/2015-census-test-starts-today-in-the-savannah-ga-area-2.html</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Happy 25th Anniversary, TIGER</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2014/11/happy-25th-anniversary-tiger.html</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Introducing Census PoP Quiz, the Census Bureau�s Latest Mobile App</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2014/08/introducing-census-pop-quiz-the-census-bureaus-latest-mobile-app.html</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>224 Years of Measuring America's People, Places, and Economy</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2014/07/celebrating-224-years-of-measuring-americas-people-places-and-economy.html</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Collecting Reliable, Timely and Local Census Data</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2014/06/collecting-reliable-timely-and-local-census-data.html</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Know the Population, Every Minute, Every Day</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2013/04/know-the-population-every-minute-every-day.html</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>The Times, They Are a-Changin�</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/08/the-times-they-are-a-changin.html</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>And Now, for Something a Little Different . . .</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/06/and-now-for-something-a-little-different.html</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>How Good was the 2010 Census?, Part 3</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/05/how-good-was-the-2010-census-part-3.html</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Looking Forward, Looking Back</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/04/looking-forward-looking-back.html</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Genealogists, Start Your Engines!</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/03/genealogists-start-your-engines.html</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>National Statistical Offices: Independent, Alike, Real-Time Actions</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2012/02/national-statistical-offices-independent-identical-simultaneous-actions-thousands-of-miles-apart.html</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>The Future of Producing Social and Economic Statistical Information, Part III</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2011/10/the-future-of-producing-social-and-economic-statistical-information-part-iii.html</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>The Future of Producing Social and Economic Statistical Information, Part II</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2011/09/the-future-of-producing-social-and-economic-statistical-information-part-ii.html</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>The Future of Producing Social and Economic Statistical Information, Part I</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2011/09/the-future-of-producing-social-and-economic-statistical-information-part-i.html</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Quality in a Census, Some Overview Thoughts</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/09/quality-in-a-census-some-overview-thoughts.html</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Measuring Quality in a Census, Part 4</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/08/measuring-quality-in-a-census-part-4.html</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Measuring Quality in a Census, Part 3</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/07/measuring-quality-in-a-census-part-3.html</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Repairing a Problem, Connecting With Local Leaders</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/07/repairing-a-problem-connecting-with-local-leaders.html</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Measuring Quality in a Census, Part 2</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/07/measuring-quality-in-a-census-part-2.html</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Quality in a Census, Part 1</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/07/quality-in-a-census-part-1.html</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Progress Report, Five Weeks Into Nonresponse Followup</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/06/progress-report-five-weeks-into-nonresponse-followup.html</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Progress Report, Three Weeks Into Nonresponse Followup</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/05/progress-report-three-weeks-into-nonresponse-followup.html</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Progress Report, Two Weeks Into Nonresponse Followup</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/05/progress-report-two-weeks-into-nonresponse-followup.html</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Progress Report, One Week Into Nonresponse Followup</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/05/progress-report-one-week-into-nonresponse-followup.html</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>A Note to my 600,000 New Colleagues</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/05/a-note-to-my-600000-new-colleagues.html</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Academy Awards Show in LA</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/04/academy-awards-show-in-la.html</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Our Partners, at Half-Time of The 2010 Census</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/04/our-partners-at-halftime-of-the-2010-census.html</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>So, How Are we Doing?</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/04/so-how-are-we-doing.html</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>10 Questions, 10 Minutes</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/04/10-questions-10-minutes.html</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>If You Got a Form, You�ll be Counted in The Right Location</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/03/if-you-got-a-form-youll-be-counted-in-the-right-location.html</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>So, How do You Handle Prisons?</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/03/so-how-do-you-handle-prisons.html</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Censys Director Blog</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>And so, it Began �</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>https://www.census.gov/newsroom/blogs/director/2010/01/and-so-it-began.html</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Launched in 2009, this blog gives the director's point of view on everything from Census Bureau news to how we measure America's people, places and economy.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
